--- a/Última.xlsx
+++ b/Última.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3902" uniqueCount="3902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4498" uniqueCount="4498">
   <si>
     <t xml:space="preserve">Código</t>
   </si>
@@ -11718,6 +11718,1794 @@
   </si>
   <si>
     <t xml:space="preserve">43.3920158690801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARAMANTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARAMANTA - ANTIOQUIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8094390026714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.1388137732107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.4464609800363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1719062329638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.9128691213999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.7545172476729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4842883548983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.6070435588508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6219739292365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2995151063036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7265917602996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7934598759632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GÓMEZ PLATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GÓMEZ PLATA - ANTIOQUIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.492353049567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0995475113122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7746178457163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2443524745646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.21644111961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.800796812749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7761389708292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.571197280013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9584432190522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7952930026852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.8704137392662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4273372415921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1242851696531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6142017186793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENTRERRIOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENTRERRIOS - ANTIOQUIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0845921450151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.595547309833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2192312079389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6398295581969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8589423390162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6883283454468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5756236185665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91.7711838482716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2010050251256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.1922391605623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.5480093676815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61168781237985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL SANTUARIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL SANTUARIO - ANTIOQUIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.106180787064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.889292681994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1635690569782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.2582645414083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.0423581116921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4180850662339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3829427034348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49765698219306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4265530387979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0863084146978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3568066417108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3909830007391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1238938053097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0391521931116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34403113869203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUERTO NARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUERTO NARE - ANTIOQUIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.3651473180559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1980909879757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2871075891496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9748352306771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.8824118235883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82479030754893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2840928731924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5078966873824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.4047605617914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58191459670667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.2394630724189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8710700421018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6567406605306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0823415889353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2246630584739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7687253613666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8235722838253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TARSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TARSO - ANTIOQUIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2685512367491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.2271577171774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9524807826695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.2627483673753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6128675962999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4197970935015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4912943717101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3815067576609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.985703145308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.1604938271605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1533765738268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7121307353866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.262451869333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URAMITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URAMITA - ANTIOQUIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.2630374563411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.2369371538647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120.423892100193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.3475117484034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.4085373206319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.4025582237239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1516725033209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.6767371601209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.4741170778907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1050720251786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2336120198716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3013365735115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1639703199124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5319045299562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL CARMEN DE BOLÍVAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL CARMEN DE BOLÍVAR - BOLÍVAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9449338549288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151.776679959526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.4952606635071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.5246056039557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.4776921280075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.9833825487812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60659264996988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4103015753512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2517580872011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5253987251928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7646249139711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9747471309746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03784809615462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65327141355405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7236065271989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8943066186695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4162384378212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAN JACINTO DEL CAUCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAN JACINTO DEL CAUCA - BOLÍVAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37734433608402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2398931126627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9104591189651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2192847295434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77786419849109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4482347683599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5740727246229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3736107153035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96912676841592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANTA CATALINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANTA CATALINA - BOLÍVAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4924223394457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7676050455267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.9437921558831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1729971802952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9924117452986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7144843379406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2179695102173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1993889692877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97066794197354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6372165754496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6727511795189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66812361015259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59359100918825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0797112347721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8909239818331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7568803954844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIMITÍ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIMITÍ - BOLÍVAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2910670648928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.4099243702051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.0062981865566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.86005909213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.6860130161101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3325219599958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4580821055943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1380974622451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3948786370401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5556118827943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00300180108065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6657786986335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3001555209953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9211558702517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2352941176471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BELÉN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BELÉN - BOYACÁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2252614641995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8528829110625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3101777059774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.3036168565424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2841345068833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5061557933494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.9538678248621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9588615163836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5987556423082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.332005973121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.0904012188928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8701736201088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2240148108966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.5675675675676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHINAVITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHINAVITA - BOYACÁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106.752068321324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.3617929562433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8384326355341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.342361863489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5482093663912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9173646007817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1214848143982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5795941697628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COPER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COPER - BOYACÁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">226.70596236681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0786983614124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.019281123542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.2625482625483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0689395838556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.4518828451883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.4016620498615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4819139846198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIPÍ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIPÍ - BOYACÁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5078173858662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1540686706075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.722517058378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3936008125952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5036980362153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4911470361817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.679731820526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9819550824354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0497194310322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2846628991983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5922084829145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1069518716578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUÍPAMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUÍPAMA - BOYACÁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9493047191503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4039430939845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1180484476288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9226361031519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.9810273021749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0672121566335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.1016548463357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8765845491509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1006776379477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.385434728759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6647834274953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1000762001524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5802469135802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0378096479791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1943528169943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TINJACÁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TINJACÁ - BOYACÁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.384133611691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3406593406593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.7277345072807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7040781934614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5683115139309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.4672648720505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0687830687831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8731097961867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PENSILVANIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PENSILVANIA - CALDAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80604399786862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.3433538298034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.0262858874328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.6830394308635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8587112894677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2823832235597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5061153394676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9386765652816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7324391907252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3705275924803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9537528430629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58437618505878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58725341426404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9674139827776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3882245757886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3864956161992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3877922866687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIMBIQUÍ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIMBIQUÍ - CAUCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77805915237231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.152501795547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.336917562724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54380606986066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8140598209183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2588967548819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9510588904155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.9137288215584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.4721634954193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35278713056491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6133085155886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5039552204284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8007176373171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.3156161375903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.7261595885111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL COPEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL COPEY - CESAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.716486397902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.218930577033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.4613520717228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.027872331905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8459950781932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.3186119873817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7545646892877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6854282709461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2414006817478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2633687779319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8312315535283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62660158633313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79449039993929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6646016696257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2837100838756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.216246582525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1164794985636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAN ALBERTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAN ALBERTO - CESAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8975497622904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5388701603841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9775202317914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4319569997557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78217206255081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.8713149274684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.0641066764423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97464662328921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3942523179681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61178091629349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3164556962025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4100273020601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1693980204446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9229330042594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5289614498301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1717791411043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOJACÁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOJACÁ - CUNDINAMARCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.0876533934385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.1985781419448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.1462960809396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.0501182565604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.5082038941151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9420783645656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3594737387341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83477576711251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7549122975175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.677624206201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7714590367869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9627866724362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4744645799012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDINA - CUNDINAMARCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.551345962114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.326645831233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.882800608828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162.519045200609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4653515427415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.5815831987076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1369311316955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1356102461075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0250626566416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.8802873104549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8846689202625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7863078749505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6811651249754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PANDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PANDI - CUNDINAMARCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5459940652819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8459837877671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.01100110011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2882223847842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2781941144215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0505415162455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0230547550432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7462019660411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.4283170080142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7525297354873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6740897843761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6180408738548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.106196243637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9833828931258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUIPILE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUIPILE - CUNDINAMARCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.832919181162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.6216412490922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.339783375928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3783520234032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4528670986673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4200244200244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2339124051872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2384041121038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2428991185113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5398773006135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2759636631476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIOTÁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIOTÁ - CUNDINAMARCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14336738338453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.067201387384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.4197458741054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.5930880713489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.5016734845668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8329355608592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3830485712154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8908982214916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4794315632012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48222970445193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4685440383463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4503782488203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9902563333833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0060024009604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELÍAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELÍAS - HUILA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6748466257669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.7049083382614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2737686139748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.3063063063063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.4616412723871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4452926208651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.1504513540622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6062992125984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQUIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQUIRA - HUILA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.7708251857646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1791331031837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40999341300461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.9856680536292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3761684363372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90471950133571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4916914465629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.5065670873036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5576620581174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.390243902439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99105002397315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7109190887667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4332896056795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8440647616205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAN AGUSTÍN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAN AGUSTÍN - HUILA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.2336587216722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8984015541393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3163000640011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0026670222696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3852242744063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8972685442026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45661157024793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1448928080769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9518643853379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1725411632129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4981092306739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13704010555709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1587938476503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0956597692841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94988066825776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8273211117682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOCHALEMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOCHALEMA - NORTE DE SANTANDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5231294628997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.4292265362275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5719276925414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1148730350665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.1413321305067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9566257852229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7265160523187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.760147601476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.421690222094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3410296859315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0785583556244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VILLA CARO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VILLA CARO - NORTE DE SANTANDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.0320128051221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8168425243878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.4766058683584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.7947046038332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2695857058708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5771339075959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4099378881988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.7812018489985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2628658886551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUÁTICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RISARALDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUÁTICA - RISARALDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4841634657767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.767142315949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9891097885273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0936863543788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4049158292261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2505133470226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7449958164382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2108764451334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.2826058800673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49434991557345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5439739413681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.733699202927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1053010942926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1440588853838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58935160780179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLORIÁN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLORIÁN - SANTANDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.7746390458255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.3944810285356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.6860993574675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.0883691728143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.1475719000471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7331655129012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7529930686831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7703832203123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7903047528817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8503724837534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OVEJAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OVEJAS - SUCRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.9435502153707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.136170407277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.5699834467537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120.048019207683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.9751817382044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9321042121395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2422140496253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68099049758929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70411139335779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74135887345313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51022349025202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0775981303954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUNDAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUNDAY - TOLIMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3250870441635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.2485431504949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.1324726354196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.5257317773101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.600193143409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4779898714453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83187493855078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0260338439972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.309153364316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5654610290372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1397135146357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9555741827326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANTA ISABEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANTA ISABEL - TOLIMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3122158229767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91.1577028258888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.9291698400609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.8365164247517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.9558823529412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.8049155145929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.2036038811027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4846701765252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0703743980115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5690487311225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.617679212869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4613811546327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5457413249211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA PRIMAVERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA PRIMAVERA - VICHADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0061968280643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4197437829691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.3773790103317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.844382414515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.3947589450697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2738085605632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5945419103314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0364634238027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0044231745341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.98376941374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2565833896016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5902750619215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8845524361073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08013619505077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6201104193586</t>
   </si>
 </sst>
 </file>
@@ -46952,6 +48740,6185 @@
         <v>89</v>
       </c>
     </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>3902</v>
+      </c>
+      <c r="B210" t="s">
+        <v>3903</v>
+      </c>
+      <c r="C210" t="s">
+        <v>57</v>
+      </c>
+      <c r="D210" t="s">
+        <v>3904</v>
+      </c>
+      <c r="E210" t="s">
+        <v>59</v>
+      </c>
+      <c r="F210" t="s">
+        <v>3905</v>
+      </c>
+      <c r="G210" t="s">
+        <v>3906</v>
+      </c>
+      <c r="H210" t="s">
+        <v>3907</v>
+      </c>
+      <c r="I210" t="s">
+        <v>3908</v>
+      </c>
+      <c r="J210" t="s">
+        <v>3909</v>
+      </c>
+      <c r="K210" t="s">
+        <v>3910</v>
+      </c>
+      <c r="L210" t="s">
+        <v>59</v>
+      </c>
+      <c r="M210" t="s">
+        <v>59</v>
+      </c>
+      <c r="N210" t="s">
+        <v>59</v>
+      </c>
+      <c r="O210" t="s">
+        <v>3911</v>
+      </c>
+      <c r="P210" t="s">
+        <v>3912</v>
+      </c>
+      <c r="Q210" t="s">
+        <v>3913</v>
+      </c>
+      <c r="R210" t="s">
+        <v>3914</v>
+      </c>
+      <c r="S210" t="s">
+        <v>3915</v>
+      </c>
+      <c r="T210" t="s">
+        <v>3916</v>
+      </c>
+      <c r="U210" t="s">
+        <v>59</v>
+      </c>
+      <c r="V210" t="s">
+        <v>59</v>
+      </c>
+      <c r="W210" t="s">
+        <v>138</v>
+      </c>
+      <c r="X210" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y210" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z210" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA210" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB210" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC210" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD210" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE210" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF210" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG210" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH210" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI210" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ210" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK210" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL210" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM210" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN210" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO210" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP210" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ210" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR210" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS210" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT210" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU210" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV210" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW210" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX210" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY210" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ210" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA210" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB210" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC210" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>3917</v>
+      </c>
+      <c r="B211" t="s">
+        <v>3918</v>
+      </c>
+      <c r="C211" t="s">
+        <v>57</v>
+      </c>
+      <c r="D211" t="s">
+        <v>3919</v>
+      </c>
+      <c r="E211" t="s">
+        <v>59</v>
+      </c>
+      <c r="F211" t="s">
+        <v>3920</v>
+      </c>
+      <c r="G211" t="s">
+        <v>3921</v>
+      </c>
+      <c r="H211" t="s">
+        <v>3922</v>
+      </c>
+      <c r="I211" t="s">
+        <v>59</v>
+      </c>
+      <c r="J211" t="s">
+        <v>3923</v>
+      </c>
+      <c r="K211" t="s">
+        <v>2431</v>
+      </c>
+      <c r="L211" t="s">
+        <v>3924</v>
+      </c>
+      <c r="M211" t="s">
+        <v>3925</v>
+      </c>
+      <c r="N211" t="s">
+        <v>3926</v>
+      </c>
+      <c r="O211" t="s">
+        <v>3927</v>
+      </c>
+      <c r="P211" t="s">
+        <v>3928</v>
+      </c>
+      <c r="Q211" t="s">
+        <v>3929</v>
+      </c>
+      <c r="R211" t="s">
+        <v>3930</v>
+      </c>
+      <c r="S211" t="s">
+        <v>3931</v>
+      </c>
+      <c r="T211" t="s">
+        <v>3932</v>
+      </c>
+      <c r="U211" t="s">
+        <v>3933</v>
+      </c>
+      <c r="V211" t="s">
+        <v>59</v>
+      </c>
+      <c r="W211" t="s">
+        <v>77</v>
+      </c>
+      <c r="X211" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y211" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z211" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA211" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB211" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC211" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD211" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE211" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF211" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG211" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH211" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI211" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ211" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK211" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL211" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM211" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN211" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO211" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP211" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ211" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR211" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS211" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT211" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU211" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV211" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW211" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX211" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY211" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ211" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA211" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB211" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC211" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>3934</v>
+      </c>
+      <c r="B212" t="s">
+        <v>3935</v>
+      </c>
+      <c r="C212" t="s">
+        <v>57</v>
+      </c>
+      <c r="D212" t="s">
+        <v>3936</v>
+      </c>
+      <c r="E212" t="s">
+        <v>59</v>
+      </c>
+      <c r="F212" t="s">
+        <v>59</v>
+      </c>
+      <c r="G212" t="s">
+        <v>3937</v>
+      </c>
+      <c r="H212" t="s">
+        <v>3642</v>
+      </c>
+      <c r="I212" t="s">
+        <v>3938</v>
+      </c>
+      <c r="J212" t="s">
+        <v>3939</v>
+      </c>
+      <c r="K212" t="s">
+        <v>3940</v>
+      </c>
+      <c r="L212" t="s">
+        <v>59</v>
+      </c>
+      <c r="M212" t="s">
+        <v>3941</v>
+      </c>
+      <c r="N212" t="s">
+        <v>3942</v>
+      </c>
+      <c r="O212" t="s">
+        <v>3943</v>
+      </c>
+      <c r="P212" t="s">
+        <v>3413</v>
+      </c>
+      <c r="Q212" t="s">
+        <v>3944</v>
+      </c>
+      <c r="R212" t="s">
+        <v>3945</v>
+      </c>
+      <c r="S212" t="s">
+        <v>3946</v>
+      </c>
+      <c r="T212" t="s">
+        <v>3947</v>
+      </c>
+      <c r="U212" t="s">
+        <v>3948</v>
+      </c>
+      <c r="V212" t="s">
+        <v>59</v>
+      </c>
+      <c r="W212" t="s">
+        <v>59</v>
+      </c>
+      <c r="X212" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y212" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z212" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA212" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB212" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC212" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD212" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE212" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF212" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG212" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH212" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI212" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ212" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK212" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL212" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM212" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN212" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO212" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP212" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ212" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR212" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS212" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT212" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU212" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV212" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW212" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX212" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY212" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ212" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA212" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB212" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC212" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>3949</v>
+      </c>
+      <c r="B213" t="s">
+        <v>3950</v>
+      </c>
+      <c r="C213" t="s">
+        <v>57</v>
+      </c>
+      <c r="D213" t="s">
+        <v>3951</v>
+      </c>
+      <c r="E213" t="s">
+        <v>3952</v>
+      </c>
+      <c r="F213" t="s">
+        <v>3953</v>
+      </c>
+      <c r="G213" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H213" t="s">
+        <v>3955</v>
+      </c>
+      <c r="I213" t="s">
+        <v>3956</v>
+      </c>
+      <c r="J213" t="s">
+        <v>3957</v>
+      </c>
+      <c r="K213" t="s">
+        <v>3958</v>
+      </c>
+      <c r="L213" t="s">
+        <v>3959</v>
+      </c>
+      <c r="M213" t="s">
+        <v>3960</v>
+      </c>
+      <c r="N213" t="s">
+        <v>3961</v>
+      </c>
+      <c r="O213" t="s">
+        <v>59</v>
+      </c>
+      <c r="P213" t="s">
+        <v>3962</v>
+      </c>
+      <c r="Q213" t="s">
+        <v>3963</v>
+      </c>
+      <c r="R213" t="s">
+        <v>3964</v>
+      </c>
+      <c r="S213" t="s">
+        <v>3965</v>
+      </c>
+      <c r="T213" t="s">
+        <v>3966</v>
+      </c>
+      <c r="U213" t="s">
+        <v>2362</v>
+      </c>
+      <c r="V213" t="s">
+        <v>974</v>
+      </c>
+      <c r="W213" t="s">
+        <v>85</v>
+      </c>
+      <c r="X213" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y213" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z213" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA213" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB213" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC213" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD213" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE213" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF213" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG213" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH213" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI213" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ213" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK213" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL213" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM213" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN213" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO213" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP213" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ213" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR213" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS213" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT213" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU213" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV213" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW213" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX213" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY213" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ213" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA213" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB213" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC213" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>3967</v>
+      </c>
+      <c r="B214" t="s">
+        <v>3968</v>
+      </c>
+      <c r="C214" t="s">
+        <v>57</v>
+      </c>
+      <c r="D214" t="s">
+        <v>3969</v>
+      </c>
+      <c r="E214" t="s">
+        <v>3970</v>
+      </c>
+      <c r="F214" t="s">
+        <v>3971</v>
+      </c>
+      <c r="G214" t="s">
+        <v>3972</v>
+      </c>
+      <c r="H214" t="s">
+        <v>3973</v>
+      </c>
+      <c r="I214" t="s">
+        <v>3974</v>
+      </c>
+      <c r="J214" t="s">
+        <v>3975</v>
+      </c>
+      <c r="K214" t="s">
+        <v>3976</v>
+      </c>
+      <c r="L214" t="s">
+        <v>3977</v>
+      </c>
+      <c r="M214" t="s">
+        <v>3978</v>
+      </c>
+      <c r="N214" t="s">
+        <v>3979</v>
+      </c>
+      <c r="O214" t="s">
+        <v>3980</v>
+      </c>
+      <c r="P214" t="s">
+        <v>3981</v>
+      </c>
+      <c r="Q214" t="s">
+        <v>3982</v>
+      </c>
+      <c r="R214" t="s">
+        <v>3983</v>
+      </c>
+      <c r="S214" t="s">
+        <v>3984</v>
+      </c>
+      <c r="T214" t="s">
+        <v>3985</v>
+      </c>
+      <c r="U214" t="s">
+        <v>3986</v>
+      </c>
+      <c r="V214" t="s">
+        <v>117</v>
+      </c>
+      <c r="W214" t="s">
+        <v>138</v>
+      </c>
+      <c r="X214" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y214" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z214" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA214" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB214" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC214" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD214" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE214" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF214" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG214" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH214" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI214" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ214" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK214" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL214" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM214" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN214" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO214" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP214" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ214" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR214" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS214" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT214" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU214" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV214" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW214" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX214" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY214" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ214" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA214" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB214" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC214" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>3987</v>
+      </c>
+      <c r="B215" t="s">
+        <v>3988</v>
+      </c>
+      <c r="C215" t="s">
+        <v>57</v>
+      </c>
+      <c r="D215" t="s">
+        <v>3989</v>
+      </c>
+      <c r="E215" t="s">
+        <v>59</v>
+      </c>
+      <c r="F215" t="s">
+        <v>3990</v>
+      </c>
+      <c r="G215" t="s">
+        <v>3991</v>
+      </c>
+      <c r="H215" t="s">
+        <v>3992</v>
+      </c>
+      <c r="I215" t="s">
+        <v>3993</v>
+      </c>
+      <c r="J215" t="s">
+        <v>3994</v>
+      </c>
+      <c r="K215" t="s">
+        <v>3995</v>
+      </c>
+      <c r="L215" t="s">
+        <v>59</v>
+      </c>
+      <c r="M215" t="s">
+        <v>3996</v>
+      </c>
+      <c r="N215" t="s">
+        <v>3997</v>
+      </c>
+      <c r="O215" t="s">
+        <v>59</v>
+      </c>
+      <c r="P215" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q215" t="s">
+        <v>3998</v>
+      </c>
+      <c r="R215" t="s">
+        <v>3999</v>
+      </c>
+      <c r="S215" t="s">
+        <v>4000</v>
+      </c>
+      <c r="T215" t="s">
+        <v>4001</v>
+      </c>
+      <c r="U215" t="s">
+        <v>4002</v>
+      </c>
+      <c r="V215" t="s">
+        <v>59</v>
+      </c>
+      <c r="W215" t="s">
+        <v>137</v>
+      </c>
+      <c r="X215" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y215" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z215" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA215" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB215" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC215" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD215" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE215" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF215" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG215" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH215" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI215" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ215" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK215" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL215" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM215" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN215" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO215" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP215" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ215" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR215" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS215" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT215" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU215" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV215" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW215" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX215" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY215" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ215" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA215" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB215" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC215" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>4003</v>
+      </c>
+      <c r="B216" t="s">
+        <v>4004</v>
+      </c>
+      <c r="C216" t="s">
+        <v>57</v>
+      </c>
+      <c r="D216" t="s">
+        <v>4005</v>
+      </c>
+      <c r="E216" t="s">
+        <v>4006</v>
+      </c>
+      <c r="F216" t="s">
+        <v>59</v>
+      </c>
+      <c r="G216" t="s">
+        <v>4007</v>
+      </c>
+      <c r="H216" t="s">
+        <v>4008</v>
+      </c>
+      <c r="I216" t="s">
+        <v>4009</v>
+      </c>
+      <c r="J216" t="s">
+        <v>4010</v>
+      </c>
+      <c r="K216" t="s">
+        <v>4011</v>
+      </c>
+      <c r="L216" t="s">
+        <v>4012</v>
+      </c>
+      <c r="M216" t="s">
+        <v>4013</v>
+      </c>
+      <c r="N216" t="s">
+        <v>4014</v>
+      </c>
+      <c r="O216" t="s">
+        <v>4015</v>
+      </c>
+      <c r="P216" t="s">
+        <v>4016</v>
+      </c>
+      <c r="Q216" t="s">
+        <v>59</v>
+      </c>
+      <c r="R216" t="s">
+        <v>2541</v>
+      </c>
+      <c r="S216" t="s">
+        <v>4017</v>
+      </c>
+      <c r="T216" t="s">
+        <v>4018</v>
+      </c>
+      <c r="U216" t="s">
+        <v>4019</v>
+      </c>
+      <c r="V216" t="s">
+        <v>87</v>
+      </c>
+      <c r="W216" t="s">
+        <v>59</v>
+      </c>
+      <c r="X216" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y216" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z216" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA216" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB216" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC216" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD216" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE216" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF216" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG216" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH216" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI216" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ216" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK216" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL216" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM216" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN216" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO216" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP216" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ216" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR216" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS216" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT216" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU216" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV216" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW216" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX216" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY216" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ216" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA216" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB216" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC216" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>4020</v>
+      </c>
+      <c r="B217" t="s">
+        <v>4021</v>
+      </c>
+      <c r="C217" t="s">
+        <v>2862</v>
+      </c>
+      <c r="D217" t="s">
+        <v>4022</v>
+      </c>
+      <c r="E217" t="s">
+        <v>4023</v>
+      </c>
+      <c r="F217" t="s">
+        <v>4024</v>
+      </c>
+      <c r="G217" t="s">
+        <v>4025</v>
+      </c>
+      <c r="H217" t="s">
+        <v>4026</v>
+      </c>
+      <c r="I217" t="s">
+        <v>4027</v>
+      </c>
+      <c r="J217" t="s">
+        <v>4028</v>
+      </c>
+      <c r="K217" t="s">
+        <v>4029</v>
+      </c>
+      <c r="L217" t="s">
+        <v>4030</v>
+      </c>
+      <c r="M217" t="s">
+        <v>4031</v>
+      </c>
+      <c r="N217" t="s">
+        <v>4032</v>
+      </c>
+      <c r="O217" t="s">
+        <v>4033</v>
+      </c>
+      <c r="P217" t="s">
+        <v>4034</v>
+      </c>
+      <c r="Q217" t="s">
+        <v>4035</v>
+      </c>
+      <c r="R217" t="s">
+        <v>4036</v>
+      </c>
+      <c r="S217" t="s">
+        <v>4037</v>
+      </c>
+      <c r="T217" t="s">
+        <v>4038</v>
+      </c>
+      <c r="U217" t="s">
+        <v>4039</v>
+      </c>
+      <c r="V217" t="s">
+        <v>117</v>
+      </c>
+      <c r="W217" t="s">
+        <v>1664</v>
+      </c>
+      <c r="X217" t="s">
+        <v>869</v>
+      </c>
+      <c r="Y217" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z217" t="s">
+        <v>306</v>
+      </c>
+      <c r="AA217" t="s">
+        <v>351</v>
+      </c>
+      <c r="AB217" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC217" t="s">
+        <v>278</v>
+      </c>
+      <c r="AD217" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE217" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF217" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG217" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH217" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI217" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ217" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK217" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL217" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM217" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN217" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO217" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP217" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ217" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR217" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS217" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT217" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU217" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV217" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW217" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX217" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY217" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ217" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA217" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB217" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC217" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>4040</v>
+      </c>
+      <c r="B218" t="s">
+        <v>4041</v>
+      </c>
+      <c r="C218" t="s">
+        <v>2862</v>
+      </c>
+      <c r="D218" t="s">
+        <v>4042</v>
+      </c>
+      <c r="E218" t="s">
+        <v>59</v>
+      </c>
+      <c r="F218" t="s">
+        <v>59</v>
+      </c>
+      <c r="G218" t="s">
+        <v>4043</v>
+      </c>
+      <c r="H218" t="s">
+        <v>59</v>
+      </c>
+      <c r="I218" t="s">
+        <v>59</v>
+      </c>
+      <c r="J218" t="s">
+        <v>59</v>
+      </c>
+      <c r="K218" t="s">
+        <v>4044</v>
+      </c>
+      <c r="L218" t="s">
+        <v>4045</v>
+      </c>
+      <c r="M218" t="s">
+        <v>59</v>
+      </c>
+      <c r="N218" t="s">
+        <v>4046</v>
+      </c>
+      <c r="O218" t="s">
+        <v>59</v>
+      </c>
+      <c r="P218" t="s">
+        <v>4047</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>59</v>
+      </c>
+      <c r="R218" t="s">
+        <v>4048</v>
+      </c>
+      <c r="S218" t="s">
+        <v>4049</v>
+      </c>
+      <c r="T218" t="s">
+        <v>4050</v>
+      </c>
+      <c r="U218" t="s">
+        <v>4051</v>
+      </c>
+      <c r="V218" t="s">
+        <v>59</v>
+      </c>
+      <c r="W218" t="s">
+        <v>59</v>
+      </c>
+      <c r="X218" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y218" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z218" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA218" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB218" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC218" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD218" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE218" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF218" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG218" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH218" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI218" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ218" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK218" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL218" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM218" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN218" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO218" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP218" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ218" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR218" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS218" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT218" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU218" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV218" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW218" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX218" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY218" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ218" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA218" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB218" t="s">
+        <v>240</v>
+      </c>
+      <c r="BC218" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>4052</v>
+      </c>
+      <c r="B219" t="s">
+        <v>4053</v>
+      </c>
+      <c r="C219" t="s">
+        <v>2862</v>
+      </c>
+      <c r="D219" t="s">
+        <v>4054</v>
+      </c>
+      <c r="E219" t="s">
+        <v>4055</v>
+      </c>
+      <c r="F219" t="s">
+        <v>4056</v>
+      </c>
+      <c r="G219" t="s">
+        <v>4057</v>
+      </c>
+      <c r="H219" t="s">
+        <v>4058</v>
+      </c>
+      <c r="I219" t="s">
+        <v>4059</v>
+      </c>
+      <c r="J219" t="s">
+        <v>4060</v>
+      </c>
+      <c r="K219" t="s">
+        <v>4061</v>
+      </c>
+      <c r="L219" t="s">
+        <v>4062</v>
+      </c>
+      <c r="M219" t="s">
+        <v>4063</v>
+      </c>
+      <c r="N219" t="s">
+        <v>59</v>
+      </c>
+      <c r="O219" t="s">
+        <v>4064</v>
+      </c>
+      <c r="P219" t="s">
+        <v>4065</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>4066</v>
+      </c>
+      <c r="R219" t="s">
+        <v>4067</v>
+      </c>
+      <c r="S219" t="s">
+        <v>4068</v>
+      </c>
+      <c r="T219" t="s">
+        <v>4069</v>
+      </c>
+      <c r="U219" t="s">
+        <v>4070</v>
+      </c>
+      <c r="V219" t="s">
+        <v>140</v>
+      </c>
+      <c r="W219" t="s">
+        <v>114</v>
+      </c>
+      <c r="X219" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y219" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z219" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA219" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB219" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC219" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD219" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE219" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF219" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG219" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH219" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI219" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ219" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK219" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL219" t="s">
+        <v>137</v>
+      </c>
+      <c r="AM219" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN219" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO219" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP219" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ219" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR219" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS219" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT219" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU219" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV219" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW219" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX219" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY219" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ219" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA219" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB219" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC219" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>4071</v>
+      </c>
+      <c r="B220" t="s">
+        <v>4072</v>
+      </c>
+      <c r="C220" t="s">
+        <v>2862</v>
+      </c>
+      <c r="D220" t="s">
+        <v>4073</v>
+      </c>
+      <c r="E220" t="s">
+        <v>4074</v>
+      </c>
+      <c r="F220" t="s">
+        <v>59</v>
+      </c>
+      <c r="G220" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H220" t="s">
+        <v>4076</v>
+      </c>
+      <c r="I220" t="s">
+        <v>1969</v>
+      </c>
+      <c r="J220" t="s">
+        <v>4077</v>
+      </c>
+      <c r="K220" t="s">
+        <v>4078</v>
+      </c>
+      <c r="L220" t="s">
+        <v>4079</v>
+      </c>
+      <c r="M220" t="s">
+        <v>4080</v>
+      </c>
+      <c r="N220" t="s">
+        <v>4081</v>
+      </c>
+      <c r="O220" t="s">
+        <v>4082</v>
+      </c>
+      <c r="P220" t="s">
+        <v>4083</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>4084</v>
+      </c>
+      <c r="R220" t="s">
+        <v>4085</v>
+      </c>
+      <c r="S220" t="s">
+        <v>4086</v>
+      </c>
+      <c r="T220" t="s">
+        <v>4087</v>
+      </c>
+      <c r="U220" t="s">
+        <v>4088</v>
+      </c>
+      <c r="V220" t="s">
+        <v>139</v>
+      </c>
+      <c r="W220" t="s">
+        <v>59</v>
+      </c>
+      <c r="X220" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y220" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z220" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA220" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB220" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC220" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD220" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE220" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF220" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG220" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH220" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI220" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ220" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK220" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL220" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM220" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN220" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO220" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP220" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ220" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR220" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS220" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT220" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU220" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV220" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW220" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX220" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY220" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ220" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA220" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB220" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC220" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>4089</v>
+      </c>
+      <c r="B221" t="s">
+        <v>4090</v>
+      </c>
+      <c r="C221" t="s">
+        <v>2881</v>
+      </c>
+      <c r="D221" t="s">
+        <v>4091</v>
+      </c>
+      <c r="E221" t="s">
+        <v>4092</v>
+      </c>
+      <c r="F221" t="s">
+        <v>4093</v>
+      </c>
+      <c r="G221" t="s">
+        <v>4094</v>
+      </c>
+      <c r="H221" t="s">
+        <v>4095</v>
+      </c>
+      <c r="I221" t="s">
+        <v>4096</v>
+      </c>
+      <c r="J221" t="s">
+        <v>4097</v>
+      </c>
+      <c r="K221" t="s">
+        <v>4098</v>
+      </c>
+      <c r="L221" t="s">
+        <v>4099</v>
+      </c>
+      <c r="M221" t="s">
+        <v>4100</v>
+      </c>
+      <c r="N221" t="s">
+        <v>4101</v>
+      </c>
+      <c r="O221" t="s">
+        <v>4102</v>
+      </c>
+      <c r="P221" t="s">
+        <v>4103</v>
+      </c>
+      <c r="Q221" t="s">
+        <v>4104</v>
+      </c>
+      <c r="R221" t="s">
+        <v>4105</v>
+      </c>
+      <c r="S221" t="s">
+        <v>59</v>
+      </c>
+      <c r="T221" t="s">
+        <v>59</v>
+      </c>
+      <c r="U221" t="s">
+        <v>59</v>
+      </c>
+      <c r="V221" t="s">
+        <v>140</v>
+      </c>
+      <c r="W221" t="s">
+        <v>137</v>
+      </c>
+      <c r="X221" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y221" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z221" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA221" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB221" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC221" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD221" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE221" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF221" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG221" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH221" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI221" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ221" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK221" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL221" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM221" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN221" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO221" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP221" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ221" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR221" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS221" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT221" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU221" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV221" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW221" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX221" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY221" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ221" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA221" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB221" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC221" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>4106</v>
+      </c>
+      <c r="B222" t="s">
+        <v>4107</v>
+      </c>
+      <c r="C222" t="s">
+        <v>2881</v>
+      </c>
+      <c r="D222" t="s">
+        <v>4108</v>
+      </c>
+      <c r="E222" t="s">
+        <v>59</v>
+      </c>
+      <c r="F222" t="s">
+        <v>4109</v>
+      </c>
+      <c r="G222" t="s">
+        <v>4110</v>
+      </c>
+      <c r="H222" t="s">
+        <v>59</v>
+      </c>
+      <c r="I222" t="s">
+        <v>4111</v>
+      </c>
+      <c r="J222" t="s">
+        <v>59</v>
+      </c>
+      <c r="K222" t="s">
+        <v>4112</v>
+      </c>
+      <c r="L222" t="s">
+        <v>3602</v>
+      </c>
+      <c r="M222" t="s">
+        <v>59</v>
+      </c>
+      <c r="N222" t="s">
+        <v>4113</v>
+      </c>
+      <c r="O222" t="s">
+        <v>59</v>
+      </c>
+      <c r="P222" t="s">
+        <v>4114</v>
+      </c>
+      <c r="Q222" t="s">
+        <v>4115</v>
+      </c>
+      <c r="R222" t="s">
+        <v>59</v>
+      </c>
+      <c r="S222" t="s">
+        <v>4116</v>
+      </c>
+      <c r="T222" t="s">
+        <v>59</v>
+      </c>
+      <c r="U222" t="s">
+        <v>59</v>
+      </c>
+      <c r="V222" t="s">
+        <v>59</v>
+      </c>
+      <c r="W222" t="s">
+        <v>140</v>
+      </c>
+      <c r="X222" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y222" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z222" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA222" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB222" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC222" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD222" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE222" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF222" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG222" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH222" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI222" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ222" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK222" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL222" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM222" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN222" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO222" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP222" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ222" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR222" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS222" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT222" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU222" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV222" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW222" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX222" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY222" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ222" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA222" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB222" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC222" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>4117</v>
+      </c>
+      <c r="B223" t="s">
+        <v>4118</v>
+      </c>
+      <c r="C223" t="s">
+        <v>2881</v>
+      </c>
+      <c r="D223" t="s">
+        <v>4119</v>
+      </c>
+      <c r="E223" t="s">
+        <v>4120</v>
+      </c>
+      <c r="F223" t="s">
+        <v>4121</v>
+      </c>
+      <c r="G223" t="s">
+        <v>59</v>
+      </c>
+      <c r="H223" t="s">
+        <v>4122</v>
+      </c>
+      <c r="I223" t="s">
+        <v>4123</v>
+      </c>
+      <c r="J223" t="s">
+        <v>59</v>
+      </c>
+      <c r="K223" t="s">
+        <v>59</v>
+      </c>
+      <c r="L223" t="s">
+        <v>4124</v>
+      </c>
+      <c r="M223" t="s">
+        <v>59</v>
+      </c>
+      <c r="N223" t="s">
+        <v>59</v>
+      </c>
+      <c r="O223" t="s">
+        <v>4125</v>
+      </c>
+      <c r="P223" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q223" t="s">
+        <v>4077</v>
+      </c>
+      <c r="R223" t="s">
+        <v>59</v>
+      </c>
+      <c r="S223" t="s">
+        <v>4126</v>
+      </c>
+      <c r="T223" t="s">
+        <v>59</v>
+      </c>
+      <c r="U223" t="s">
+        <v>4127</v>
+      </c>
+      <c r="V223" t="s">
+        <v>80</v>
+      </c>
+      <c r="W223" t="s">
+        <v>138</v>
+      </c>
+      <c r="X223" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y223" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z223" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA223" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB223" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC223" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD223" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE223" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF223" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG223" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH223" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI223" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ223" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK223" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL223" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM223" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN223" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO223" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP223" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ223" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR223" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS223" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT223" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU223" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV223" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW223" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX223" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY223" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ223" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA223" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB223" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC223" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>4128</v>
+      </c>
+      <c r="B224" t="s">
+        <v>4129</v>
+      </c>
+      <c r="C224" t="s">
+        <v>2881</v>
+      </c>
+      <c r="D224" t="s">
+        <v>4130</v>
+      </c>
+      <c r="E224" t="s">
+        <v>59</v>
+      </c>
+      <c r="F224" t="s">
+        <v>4131</v>
+      </c>
+      <c r="G224" t="s">
+        <v>4132</v>
+      </c>
+      <c r="H224" t="s">
+        <v>4133</v>
+      </c>
+      <c r="I224" t="s">
+        <v>4134</v>
+      </c>
+      <c r="J224" t="s">
+        <v>4135</v>
+      </c>
+      <c r="K224" t="s">
+        <v>4136</v>
+      </c>
+      <c r="L224" t="s">
+        <v>4137</v>
+      </c>
+      <c r="M224" t="s">
+        <v>4138</v>
+      </c>
+      <c r="N224" t="s">
+        <v>4139</v>
+      </c>
+      <c r="O224" t="s">
+        <v>4140</v>
+      </c>
+      <c r="P224" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q224" t="s">
+        <v>4141</v>
+      </c>
+      <c r="R224" t="s">
+        <v>4142</v>
+      </c>
+      <c r="S224" t="s">
+        <v>59</v>
+      </c>
+      <c r="T224" t="s">
+        <v>2758</v>
+      </c>
+      <c r="U224" t="s">
+        <v>59</v>
+      </c>
+      <c r="V224" t="s">
+        <v>59</v>
+      </c>
+      <c r="W224" t="s">
+        <v>138</v>
+      </c>
+      <c r="X224" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y224" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z224" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA224" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB224" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC224" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD224" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE224" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF224" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG224" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH224" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI224" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ224" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK224" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL224" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM224" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN224" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO224" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP224" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ224" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR224" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS224" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT224" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU224" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV224" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW224" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX224" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY224" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ224" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA224" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB224" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC224" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>4143</v>
+      </c>
+      <c r="B225" t="s">
+        <v>4144</v>
+      </c>
+      <c r="C225" t="s">
+        <v>2881</v>
+      </c>
+      <c r="D225" t="s">
+        <v>4145</v>
+      </c>
+      <c r="E225" t="s">
+        <v>59</v>
+      </c>
+      <c r="F225" t="s">
+        <v>4146</v>
+      </c>
+      <c r="G225" t="s">
+        <v>4147</v>
+      </c>
+      <c r="H225" t="s">
+        <v>4148</v>
+      </c>
+      <c r="I225" t="s">
+        <v>4149</v>
+      </c>
+      <c r="J225" t="s">
+        <v>4150</v>
+      </c>
+      <c r="K225" t="s">
+        <v>4151</v>
+      </c>
+      <c r="L225" t="s">
+        <v>4152</v>
+      </c>
+      <c r="M225" t="s">
+        <v>4153</v>
+      </c>
+      <c r="N225" t="s">
+        <v>4154</v>
+      </c>
+      <c r="O225" t="s">
+        <v>59</v>
+      </c>
+      <c r="P225" t="s">
+        <v>4155</v>
+      </c>
+      <c r="Q225" t="s">
+        <v>4156</v>
+      </c>
+      <c r="R225" t="s">
+        <v>4157</v>
+      </c>
+      <c r="S225" t="s">
+        <v>4158</v>
+      </c>
+      <c r="T225" t="s">
+        <v>4159</v>
+      </c>
+      <c r="U225" t="s">
+        <v>4160</v>
+      </c>
+      <c r="V225" t="s">
+        <v>59</v>
+      </c>
+      <c r="W225" t="s">
+        <v>138</v>
+      </c>
+      <c r="X225" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y225" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z225" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA225" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB225" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC225" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD225" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE225" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF225" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG225" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH225" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI225" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ225" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK225" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL225" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM225" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN225" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO225" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP225" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ225" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR225" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS225" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT225" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU225" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV225" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW225" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX225" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY225" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ225" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA225" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB225" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC225" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>4161</v>
+      </c>
+      <c r="B226" t="s">
+        <v>4162</v>
+      </c>
+      <c r="C226" t="s">
+        <v>2881</v>
+      </c>
+      <c r="D226" t="s">
+        <v>4163</v>
+      </c>
+      <c r="E226" t="s">
+        <v>59</v>
+      </c>
+      <c r="F226" t="s">
+        <v>4164</v>
+      </c>
+      <c r="G226" t="s">
+        <v>4165</v>
+      </c>
+      <c r="H226" t="s">
+        <v>59</v>
+      </c>
+      <c r="I226" t="s">
+        <v>4166</v>
+      </c>
+      <c r="J226" t="s">
+        <v>4167</v>
+      </c>
+      <c r="K226" t="s">
+        <v>4168</v>
+      </c>
+      <c r="L226" t="s">
+        <v>59</v>
+      </c>
+      <c r="M226" t="s">
+        <v>59</v>
+      </c>
+      <c r="N226" t="s">
+        <v>4169</v>
+      </c>
+      <c r="O226" t="s">
+        <v>59</v>
+      </c>
+      <c r="P226" t="s">
+        <v>4170</v>
+      </c>
+      <c r="Q226" t="s">
+        <v>59</v>
+      </c>
+      <c r="R226" t="s">
+        <v>59</v>
+      </c>
+      <c r="S226" t="s">
+        <v>59</v>
+      </c>
+      <c r="T226" t="s">
+        <v>4171</v>
+      </c>
+      <c r="U226" t="s">
+        <v>59</v>
+      </c>
+      <c r="V226" t="s">
+        <v>59</v>
+      </c>
+      <c r="W226" t="s">
+        <v>139</v>
+      </c>
+      <c r="X226" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y226" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z226" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA226" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB226" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC226" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD226" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE226" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF226" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG226" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH226" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI226" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ226" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK226" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL226" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM226" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN226" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO226" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP226" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ226" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR226" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS226" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT226" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU226" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV226" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW226" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX226" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY226" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ226" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA226" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB226" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC226" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>4172</v>
+      </c>
+      <c r="B227" t="s">
+        <v>4173</v>
+      </c>
+      <c r="C227" t="s">
+        <v>684</v>
+      </c>
+      <c r="D227" t="s">
+        <v>4174</v>
+      </c>
+      <c r="E227" t="s">
+        <v>4175</v>
+      </c>
+      <c r="F227" t="s">
+        <v>4176</v>
+      </c>
+      <c r="G227" t="s">
+        <v>4177</v>
+      </c>
+      <c r="H227" t="s">
+        <v>4178</v>
+      </c>
+      <c r="I227" t="s">
+        <v>4179</v>
+      </c>
+      <c r="J227" t="s">
+        <v>4180</v>
+      </c>
+      <c r="K227" t="s">
+        <v>4181</v>
+      </c>
+      <c r="L227" t="s">
+        <v>4182</v>
+      </c>
+      <c r="M227" t="s">
+        <v>4183</v>
+      </c>
+      <c r="N227" t="s">
+        <v>4184</v>
+      </c>
+      <c r="O227" t="s">
+        <v>4185</v>
+      </c>
+      <c r="P227" t="s">
+        <v>4186</v>
+      </c>
+      <c r="Q227" t="s">
+        <v>4187</v>
+      </c>
+      <c r="R227" t="s">
+        <v>4188</v>
+      </c>
+      <c r="S227" t="s">
+        <v>4189</v>
+      </c>
+      <c r="T227" t="s">
+        <v>4190</v>
+      </c>
+      <c r="U227" t="s">
+        <v>4191</v>
+      </c>
+      <c r="V227" t="s">
+        <v>138</v>
+      </c>
+      <c r="W227" t="s">
+        <v>113</v>
+      </c>
+      <c r="X227" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y227" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z227" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA227" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB227" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC227" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD227" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE227" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF227" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG227" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH227" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI227" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ227" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK227" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL227" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM227" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN227" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO227" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP227" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ227" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR227" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS227" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT227" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU227" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV227" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW227" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX227" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY227" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ227" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA227" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB227" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC227" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B228" t="s">
+        <v>4193</v>
+      </c>
+      <c r="C228" t="s">
+        <v>443</v>
+      </c>
+      <c r="D228" t="s">
+        <v>4194</v>
+      </c>
+      <c r="E228" t="s">
+        <v>59</v>
+      </c>
+      <c r="F228" t="s">
+        <v>59</v>
+      </c>
+      <c r="G228" t="s">
+        <v>4195</v>
+      </c>
+      <c r="H228" t="s">
+        <v>4196</v>
+      </c>
+      <c r="I228" t="s">
+        <v>4197</v>
+      </c>
+      <c r="J228" t="s">
+        <v>4198</v>
+      </c>
+      <c r="K228" t="s">
+        <v>4199</v>
+      </c>
+      <c r="L228" t="s">
+        <v>4200</v>
+      </c>
+      <c r="M228" t="s">
+        <v>4201</v>
+      </c>
+      <c r="N228" t="s">
+        <v>4202</v>
+      </c>
+      <c r="O228" t="s">
+        <v>4203</v>
+      </c>
+      <c r="P228" t="s">
+        <v>4204</v>
+      </c>
+      <c r="Q228" t="s">
+        <v>4205</v>
+      </c>
+      <c r="R228" t="s">
+        <v>4206</v>
+      </c>
+      <c r="S228" t="s">
+        <v>4207</v>
+      </c>
+      <c r="T228" t="s">
+        <v>4208</v>
+      </c>
+      <c r="U228" t="s">
+        <v>4209</v>
+      </c>
+      <c r="V228" t="s">
+        <v>59</v>
+      </c>
+      <c r="W228" t="s">
+        <v>59</v>
+      </c>
+      <c r="X228" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y228" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z228" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA228" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB228" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC228" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD228" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE228" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF228" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG228" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH228" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI228" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ228" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK228" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL228" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM228" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN228" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO228" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP228" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ228" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR228" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS228" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT228" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU228" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV228" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW228" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX228" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY228" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ228" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA228" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB228" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC228" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>4210</v>
+      </c>
+      <c r="B229" t="s">
+        <v>4211</v>
+      </c>
+      <c r="C229" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D229" t="s">
+        <v>4212</v>
+      </c>
+      <c r="E229" t="s">
+        <v>4213</v>
+      </c>
+      <c r="F229" t="s">
+        <v>4214</v>
+      </c>
+      <c r="G229" t="s">
+        <v>4215</v>
+      </c>
+      <c r="H229" t="s">
+        <v>4216</v>
+      </c>
+      <c r="I229" t="s">
+        <v>4217</v>
+      </c>
+      <c r="J229" t="s">
+        <v>4218</v>
+      </c>
+      <c r="K229" t="s">
+        <v>4219</v>
+      </c>
+      <c r="L229" t="s">
+        <v>4220</v>
+      </c>
+      <c r="M229" t="s">
+        <v>4221</v>
+      </c>
+      <c r="N229" t="s">
+        <v>4222</v>
+      </c>
+      <c r="O229" t="s">
+        <v>4223</v>
+      </c>
+      <c r="P229" t="s">
+        <v>4224</v>
+      </c>
+      <c r="Q229" t="s">
+        <v>4225</v>
+      </c>
+      <c r="R229" t="s">
+        <v>4226</v>
+      </c>
+      <c r="S229" t="s">
+        <v>4227</v>
+      </c>
+      <c r="T229" t="s">
+        <v>4228</v>
+      </c>
+      <c r="U229" t="s">
+        <v>4229</v>
+      </c>
+      <c r="V229" t="s">
+        <v>83</v>
+      </c>
+      <c r="W229" t="s">
+        <v>357</v>
+      </c>
+      <c r="X229" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y229" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z229" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA229" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB229" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC229" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD229" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE229" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF229" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG229" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH229" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI229" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ229" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK229" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL229" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM229" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN229" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO229" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP229" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ229" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR229" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS229" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT229" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU229" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV229" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW229" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX229" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY229" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ229" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA229" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB229" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC229" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>4230</v>
+      </c>
+      <c r="B230" t="s">
+        <v>4231</v>
+      </c>
+      <c r="C230" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D230" t="s">
+        <v>4232</v>
+      </c>
+      <c r="E230" t="s">
+        <v>59</v>
+      </c>
+      <c r="F230" t="s">
+        <v>4233</v>
+      </c>
+      <c r="G230" t="s">
+        <v>4234</v>
+      </c>
+      <c r="H230" t="s">
+        <v>4235</v>
+      </c>
+      <c r="I230" t="s">
+        <v>4236</v>
+      </c>
+      <c r="J230" t="s">
+        <v>4237</v>
+      </c>
+      <c r="K230" t="s">
+        <v>4238</v>
+      </c>
+      <c r="L230" t="s">
+        <v>4239</v>
+      </c>
+      <c r="M230" t="s">
+        <v>4240</v>
+      </c>
+      <c r="N230" t="s">
+        <v>4241</v>
+      </c>
+      <c r="O230" t="s">
+        <v>4242</v>
+      </c>
+      <c r="P230" t="s">
+        <v>4243</v>
+      </c>
+      <c r="Q230" t="s">
+        <v>4244</v>
+      </c>
+      <c r="R230" t="s">
+        <v>4245</v>
+      </c>
+      <c r="S230" t="s">
+        <v>4246</v>
+      </c>
+      <c r="T230" t="s">
+        <v>4247</v>
+      </c>
+      <c r="U230" t="s">
+        <v>4248</v>
+      </c>
+      <c r="V230" t="s">
+        <v>59</v>
+      </c>
+      <c r="W230" t="s">
+        <v>140</v>
+      </c>
+      <c r="X230" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y230" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z230" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA230" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB230" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC230" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD230" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE230" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF230" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG230" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH230" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI230" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ230" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK230" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL230" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM230" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN230" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO230" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP230" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ230" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR230" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS230" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT230" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU230" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV230" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW230" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX230" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY230" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ230" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA230" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB230" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC230" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>4249</v>
+      </c>
+      <c r="B231" t="s">
+        <v>4250</v>
+      </c>
+      <c r="C231" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D231" t="s">
+        <v>4251</v>
+      </c>
+      <c r="E231" t="s">
+        <v>4252</v>
+      </c>
+      <c r="F231" t="s">
+        <v>4253</v>
+      </c>
+      <c r="G231" t="s">
+        <v>4254</v>
+      </c>
+      <c r="H231" t="s">
+        <v>4255</v>
+      </c>
+      <c r="I231" t="s">
+        <v>4256</v>
+      </c>
+      <c r="J231" t="s">
+        <v>4257</v>
+      </c>
+      <c r="K231" t="s">
+        <v>4258</v>
+      </c>
+      <c r="L231" t="s">
+        <v>59</v>
+      </c>
+      <c r="M231" t="s">
+        <v>4259</v>
+      </c>
+      <c r="N231" t="s">
+        <v>4260</v>
+      </c>
+      <c r="O231" t="s">
+        <v>4261</v>
+      </c>
+      <c r="P231" t="s">
+        <v>3318</v>
+      </c>
+      <c r="Q231" t="s">
+        <v>4262</v>
+      </c>
+      <c r="R231" t="s">
+        <v>4263</v>
+      </c>
+      <c r="S231" t="s">
+        <v>59</v>
+      </c>
+      <c r="T231" t="s">
+        <v>4264</v>
+      </c>
+      <c r="U231" t="s">
+        <v>59</v>
+      </c>
+      <c r="V231" t="s">
+        <v>140</v>
+      </c>
+      <c r="W231" t="s">
+        <v>140</v>
+      </c>
+      <c r="X231" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y231" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z231" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA231" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB231" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC231" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD231" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE231" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF231" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG231" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH231" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI231" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ231" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK231" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL231" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM231" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN231" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO231" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP231" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ231" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR231" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS231" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT231" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU231" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV231" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW231" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX231" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY231" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ231" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA231" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB231" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC231" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>4265</v>
+      </c>
+      <c r="B232" t="s">
+        <v>4266</v>
+      </c>
+      <c r="C232" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D232" t="s">
+        <v>4267</v>
+      </c>
+      <c r="E232" t="s">
+        <v>4268</v>
+      </c>
+      <c r="F232" t="s">
+        <v>4269</v>
+      </c>
+      <c r="G232" t="s">
+        <v>4270</v>
+      </c>
+      <c r="H232" t="s">
+        <v>4271</v>
+      </c>
+      <c r="I232" t="s">
+        <v>4272</v>
+      </c>
+      <c r="J232" t="s">
+        <v>4273</v>
+      </c>
+      <c r="K232" t="s">
+        <v>4274</v>
+      </c>
+      <c r="L232" t="s">
+        <v>4275</v>
+      </c>
+      <c r="M232" t="s">
+        <v>4276</v>
+      </c>
+      <c r="N232" t="s">
+        <v>3031</v>
+      </c>
+      <c r="O232" t="s">
+        <v>4277</v>
+      </c>
+      <c r="P232" t="s">
+        <v>4278</v>
+      </c>
+      <c r="Q232" t="s">
+        <v>59</v>
+      </c>
+      <c r="R232" t="s">
+        <v>4279</v>
+      </c>
+      <c r="S232" t="s">
+        <v>59</v>
+      </c>
+      <c r="T232" t="s">
+        <v>4280</v>
+      </c>
+      <c r="U232" t="s">
+        <v>59</v>
+      </c>
+      <c r="V232" t="s">
+        <v>86</v>
+      </c>
+      <c r="W232" t="s">
+        <v>140</v>
+      </c>
+      <c r="X232" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y232" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z232" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA232" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB232" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC232" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD232" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE232" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF232" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG232" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH232" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI232" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ232" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK232" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL232" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM232" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN232" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO232" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP232" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ232" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR232" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS232" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT232" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU232" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV232" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW232" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX232" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY232" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ232" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA232" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB232" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC232" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>4281</v>
+      </c>
+      <c r="B233" t="s">
+        <v>4282</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D233" t="s">
+        <v>4283</v>
+      </c>
+      <c r="E233" t="s">
+        <v>4284</v>
+      </c>
+      <c r="F233" t="s">
+        <v>4285</v>
+      </c>
+      <c r="G233" t="s">
+        <v>4286</v>
+      </c>
+      <c r="H233" t="s">
+        <v>4287</v>
+      </c>
+      <c r="I233" t="s">
+        <v>4288</v>
+      </c>
+      <c r="J233" t="s">
+        <v>59</v>
+      </c>
+      <c r="K233" t="s">
+        <v>59</v>
+      </c>
+      <c r="L233" t="s">
+        <v>4289</v>
+      </c>
+      <c r="M233" t="s">
+        <v>4290</v>
+      </c>
+      <c r="N233" t="s">
+        <v>59</v>
+      </c>
+      <c r="O233" t="s">
+        <v>4291</v>
+      </c>
+      <c r="P233" t="s">
+        <v>4292</v>
+      </c>
+      <c r="Q233" t="s">
+        <v>4293</v>
+      </c>
+      <c r="R233" t="s">
+        <v>4294</v>
+      </c>
+      <c r="S233" t="s">
+        <v>4295</v>
+      </c>
+      <c r="T233" t="s">
+        <v>4296</v>
+      </c>
+      <c r="U233" t="s">
+        <v>4297</v>
+      </c>
+      <c r="V233" t="s">
+        <v>138</v>
+      </c>
+      <c r="W233" t="s">
+        <v>137</v>
+      </c>
+      <c r="X233" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y233" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z233" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA233" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB233" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC233" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD233" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE233" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF233" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG233" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH233" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI233" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ233" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK233" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL233" t="s">
+        <v>137</v>
+      </c>
+      <c r="AM233" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN233" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO233" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP233" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ233" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR233" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS233" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT233" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU233" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV233" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW233" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX233" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY233" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ233" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA233" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB233" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC233" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>4298</v>
+      </c>
+      <c r="B234" t="s">
+        <v>4299</v>
+      </c>
+      <c r="C234" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D234" t="s">
+        <v>4300</v>
+      </c>
+      <c r="E234" t="s">
+        <v>4301</v>
+      </c>
+      <c r="F234" t="s">
+        <v>3826</v>
+      </c>
+      <c r="G234" t="s">
+        <v>4302</v>
+      </c>
+      <c r="H234" t="s">
+        <v>4303</v>
+      </c>
+      <c r="I234" t="s">
+        <v>4304</v>
+      </c>
+      <c r="J234" t="s">
+        <v>4305</v>
+      </c>
+      <c r="K234" t="s">
+        <v>4306</v>
+      </c>
+      <c r="L234" t="s">
+        <v>4305</v>
+      </c>
+      <c r="M234" t="s">
+        <v>4236</v>
+      </c>
+      <c r="N234" t="s">
+        <v>4307</v>
+      </c>
+      <c r="O234" t="s">
+        <v>4307</v>
+      </c>
+      <c r="P234" t="s">
+        <v>4308</v>
+      </c>
+      <c r="Q234" t="s">
+        <v>59</v>
+      </c>
+      <c r="R234" t="s">
+        <v>59</v>
+      </c>
+      <c r="S234" t="s">
+        <v>4309</v>
+      </c>
+      <c r="T234" t="s">
+        <v>4310</v>
+      </c>
+      <c r="U234" t="s">
+        <v>4311</v>
+      </c>
+      <c r="V234" t="s">
+        <v>138</v>
+      </c>
+      <c r="W234" t="s">
+        <v>113</v>
+      </c>
+      <c r="X234" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y234" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z234" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA234" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB234" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC234" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD234" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE234" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF234" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG234" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH234" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI234" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ234" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK234" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL234" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM234" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN234" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO234" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP234" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ234" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR234" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS234" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT234" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU234" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV234" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW234" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX234" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY234" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ234" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA234" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB234" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC234" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>4312</v>
+      </c>
+      <c r="B235" t="s">
+        <v>4313</v>
+      </c>
+      <c r="C235" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D235" t="s">
+        <v>4314</v>
+      </c>
+      <c r="E235" t="s">
+        <v>4315</v>
+      </c>
+      <c r="F235" t="s">
+        <v>4316</v>
+      </c>
+      <c r="G235" t="s">
+        <v>4317</v>
+      </c>
+      <c r="H235" t="s">
+        <v>59</v>
+      </c>
+      <c r="I235" t="s">
+        <v>4318</v>
+      </c>
+      <c r="J235" t="s">
+        <v>4319</v>
+      </c>
+      <c r="K235" t="s">
+        <v>187</v>
+      </c>
+      <c r="L235" t="s">
+        <v>4320</v>
+      </c>
+      <c r="M235" t="s">
+        <v>4321</v>
+      </c>
+      <c r="N235" t="s">
+        <v>4322</v>
+      </c>
+      <c r="O235" t="s">
+        <v>4323</v>
+      </c>
+      <c r="P235" t="s">
+        <v>4324</v>
+      </c>
+      <c r="Q235" t="s">
+        <v>4325</v>
+      </c>
+      <c r="R235" t="s">
+        <v>4326</v>
+      </c>
+      <c r="S235" t="s">
+        <v>4327</v>
+      </c>
+      <c r="T235" t="s">
+        <v>59</v>
+      </c>
+      <c r="U235" t="s">
+        <v>4328</v>
+      </c>
+      <c r="V235" t="s">
+        <v>138</v>
+      </c>
+      <c r="W235" t="s">
+        <v>115</v>
+      </c>
+      <c r="X235" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y235" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z235" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA235" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB235" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC235" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD235" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE235" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF235" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG235" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH235" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI235" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ235" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK235" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL235" t="s">
+        <v>137</v>
+      </c>
+      <c r="AM235" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN235" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO235" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP235" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ235" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR235" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS235" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT235" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU235" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV235" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW235" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX235" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY235" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ235" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA235" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB235" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC235" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>4329</v>
+      </c>
+      <c r="B236" t="s">
+        <v>4330</v>
+      </c>
+      <c r="C236" t="s">
+        <v>3066</v>
+      </c>
+      <c r="D236" t="s">
+        <v>4331</v>
+      </c>
+      <c r="E236" t="s">
+        <v>59</v>
+      </c>
+      <c r="F236" t="s">
+        <v>4332</v>
+      </c>
+      <c r="G236" t="s">
+        <v>59</v>
+      </c>
+      <c r="H236" t="s">
+        <v>59</v>
+      </c>
+      <c r="I236" t="s">
+        <v>4333</v>
+      </c>
+      <c r="J236" t="s">
+        <v>59</v>
+      </c>
+      <c r="K236" t="s">
+        <v>4334</v>
+      </c>
+      <c r="L236" t="s">
+        <v>4335</v>
+      </c>
+      <c r="M236" t="s">
+        <v>59</v>
+      </c>
+      <c r="N236" t="s">
+        <v>59</v>
+      </c>
+      <c r="O236" t="s">
+        <v>4336</v>
+      </c>
+      <c r="P236" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q236" t="s">
+        <v>59</v>
+      </c>
+      <c r="R236" t="s">
+        <v>4337</v>
+      </c>
+      <c r="S236" t="s">
+        <v>4338</v>
+      </c>
+      <c r="T236" t="s">
+        <v>4339</v>
+      </c>
+      <c r="U236" t="s">
+        <v>59</v>
+      </c>
+      <c r="V236" t="s">
+        <v>59</v>
+      </c>
+      <c r="W236" t="s">
+        <v>138</v>
+      </c>
+      <c r="X236" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y236" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z236" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA236" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB236" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC236" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD236" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE236" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF236" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG236" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH236" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI236" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ236" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK236" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL236" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM236" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN236" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO236" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP236" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ236" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR236" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS236" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT236" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU236" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV236" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW236" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX236" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY236" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ236" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA236" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB236" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC236" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>4340</v>
+      </c>
+      <c r="B237" t="s">
+        <v>4341</v>
+      </c>
+      <c r="C237" t="s">
+        <v>3066</v>
+      </c>
+      <c r="D237" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E237" t="s">
+        <v>59</v>
+      </c>
+      <c r="F237" t="s">
+        <v>4343</v>
+      </c>
+      <c r="G237" t="s">
+        <v>4344</v>
+      </c>
+      <c r="H237" t="s">
+        <v>4345</v>
+      </c>
+      <c r="I237" t="s">
+        <v>4346</v>
+      </c>
+      <c r="J237" t="s">
+        <v>4347</v>
+      </c>
+      <c r="K237" t="s">
+        <v>4348</v>
+      </c>
+      <c r="L237" t="s">
+        <v>4349</v>
+      </c>
+      <c r="M237" t="s">
+        <v>4350</v>
+      </c>
+      <c r="N237" t="s">
+        <v>59</v>
+      </c>
+      <c r="O237" t="s">
+        <v>4351</v>
+      </c>
+      <c r="P237" t="s">
+        <v>4352</v>
+      </c>
+      <c r="Q237" t="s">
+        <v>4353</v>
+      </c>
+      <c r="R237" t="s">
+        <v>4354</v>
+      </c>
+      <c r="S237" t="s">
+        <v>4355</v>
+      </c>
+      <c r="T237" t="s">
+        <v>59</v>
+      </c>
+      <c r="U237" t="s">
+        <v>4356</v>
+      </c>
+      <c r="V237" t="s">
+        <v>59</v>
+      </c>
+      <c r="W237" t="s">
+        <v>80</v>
+      </c>
+      <c r="X237" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y237" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z237" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA237" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB237" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC237" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD237" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE237" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF237" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG237" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH237" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI237" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ237" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK237" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL237" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM237" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN237" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO237" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP237" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ237" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR237" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS237" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT237" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU237" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV237" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW237" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX237" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY237" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ237" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA237" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB237" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC237" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>4357</v>
+      </c>
+      <c r="B238" t="s">
+        <v>4358</v>
+      </c>
+      <c r="C238" t="s">
+        <v>3066</v>
+      </c>
+      <c r="D238" t="s">
+        <v>4359</v>
+      </c>
+      <c r="E238" t="s">
+        <v>59</v>
+      </c>
+      <c r="F238" t="s">
+        <v>4360</v>
+      </c>
+      <c r="G238" t="s">
+        <v>4361</v>
+      </c>
+      <c r="H238" t="s">
+        <v>4362</v>
+      </c>
+      <c r="I238" t="s">
+        <v>4363</v>
+      </c>
+      <c r="J238" t="s">
+        <v>4364</v>
+      </c>
+      <c r="K238" t="s">
+        <v>4365</v>
+      </c>
+      <c r="L238" t="s">
+        <v>4366</v>
+      </c>
+      <c r="M238" t="s">
+        <v>4367</v>
+      </c>
+      <c r="N238" t="s">
+        <v>4368</v>
+      </c>
+      <c r="O238" t="s">
+        <v>4369</v>
+      </c>
+      <c r="P238" t="s">
+        <v>4370</v>
+      </c>
+      <c r="Q238" t="s">
+        <v>4371</v>
+      </c>
+      <c r="R238" t="s">
+        <v>4372</v>
+      </c>
+      <c r="S238" t="s">
+        <v>4373</v>
+      </c>
+      <c r="T238" t="s">
+        <v>4374</v>
+      </c>
+      <c r="U238" t="s">
+        <v>4375</v>
+      </c>
+      <c r="V238" t="s">
+        <v>59</v>
+      </c>
+      <c r="W238" t="s">
+        <v>141</v>
+      </c>
+      <c r="X238" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y238" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z238" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA238" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB238" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC238" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD238" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE238" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF238" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG238" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH238" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI238" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ238" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK238" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL238" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM238" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN238" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO238" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP238" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ238" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR238" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS238" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT238" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU238" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV238" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW238" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX238" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY238" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ238" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA238" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB238" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC238" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>4376</v>
+      </c>
+      <c r="B239" t="s">
+        <v>4377</v>
+      </c>
+      <c r="C239" t="s">
+        <v>789</v>
+      </c>
+      <c r="D239" t="s">
+        <v>4378</v>
+      </c>
+      <c r="E239" t="s">
+        <v>4379</v>
+      </c>
+      <c r="F239" t="s">
+        <v>3195</v>
+      </c>
+      <c r="G239" t="s">
+        <v>4380</v>
+      </c>
+      <c r="H239" t="s">
+        <v>4381</v>
+      </c>
+      <c r="I239" t="s">
+        <v>4382</v>
+      </c>
+      <c r="J239" t="s">
+        <v>4383</v>
+      </c>
+      <c r="K239" t="s">
+        <v>4384</v>
+      </c>
+      <c r="L239" t="s">
+        <v>4385</v>
+      </c>
+      <c r="M239" t="s">
+        <v>4386</v>
+      </c>
+      <c r="N239" t="s">
+        <v>59</v>
+      </c>
+      <c r="O239" t="s">
+        <v>2593</v>
+      </c>
+      <c r="P239" t="s">
+        <v>3180</v>
+      </c>
+      <c r="Q239" t="s">
+        <v>4387</v>
+      </c>
+      <c r="R239" t="s">
+        <v>4388</v>
+      </c>
+      <c r="S239" t="s">
+        <v>59</v>
+      </c>
+      <c r="T239" t="s">
+        <v>59</v>
+      </c>
+      <c r="U239" t="s">
+        <v>4389</v>
+      </c>
+      <c r="V239" t="s">
+        <v>138</v>
+      </c>
+      <c r="W239" t="s">
+        <v>87</v>
+      </c>
+      <c r="X239" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y239" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z239" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA239" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB239" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC239" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD239" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE239" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF239" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG239" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH239" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI239" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ239" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK239" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL239" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM239" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN239" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO239" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP239" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ239" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR239" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS239" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT239" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU239" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV239" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW239" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX239" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY239" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ239" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA239" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB239" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC239" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>4390</v>
+      </c>
+      <c r="B240" t="s">
+        <v>4391</v>
+      </c>
+      <c r="C240" t="s">
+        <v>789</v>
+      </c>
+      <c r="D240" t="s">
+        <v>4392</v>
+      </c>
+      <c r="E240" t="s">
+        <v>59</v>
+      </c>
+      <c r="F240" t="s">
+        <v>4393</v>
+      </c>
+      <c r="G240" t="s">
+        <v>4394</v>
+      </c>
+      <c r="H240" t="s">
+        <v>4395</v>
+      </c>
+      <c r="I240" t="s">
+        <v>4396</v>
+      </c>
+      <c r="J240" t="s">
+        <v>59</v>
+      </c>
+      <c r="K240" t="s">
+        <v>4397</v>
+      </c>
+      <c r="L240" t="s">
+        <v>4398</v>
+      </c>
+      <c r="M240" t="s">
+        <v>59</v>
+      </c>
+      <c r="N240" t="s">
+        <v>59</v>
+      </c>
+      <c r="O240" t="s">
+        <v>4399</v>
+      </c>
+      <c r="P240" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q240" t="s">
+        <v>59</v>
+      </c>
+      <c r="R240" t="s">
+        <v>4400</v>
+      </c>
+      <c r="S240" t="s">
+        <v>59</v>
+      </c>
+      <c r="T240" t="s">
+        <v>4248</v>
+      </c>
+      <c r="U240" t="s">
+        <v>4401</v>
+      </c>
+      <c r="V240" t="s">
+        <v>59</v>
+      </c>
+      <c r="W240" t="s">
+        <v>140</v>
+      </c>
+      <c r="X240" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y240" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z240" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA240" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB240" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC240" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD240" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE240" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF240" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG240" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH240" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI240" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ240" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK240" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL240" t="s">
+        <v>137</v>
+      </c>
+      <c r="AM240" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN240" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO240" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP240" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ240" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR240" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS240" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT240" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU240" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV240" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW240" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX240" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY240" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ240" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA240" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB240" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC240" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>4402</v>
+      </c>
+      <c r="B241" t="s">
+        <v>4403</v>
+      </c>
+      <c r="C241" t="s">
+        <v>4404</v>
+      </c>
+      <c r="D241" t="s">
+        <v>4405</v>
+      </c>
+      <c r="E241" t="s">
+        <v>4406</v>
+      </c>
+      <c r="F241" t="s">
+        <v>4407</v>
+      </c>
+      <c r="G241" t="s">
+        <v>4408</v>
+      </c>
+      <c r="H241" t="s">
+        <v>4102</v>
+      </c>
+      <c r="I241" t="s">
+        <v>4409</v>
+      </c>
+      <c r="J241" t="s">
+        <v>2425</v>
+      </c>
+      <c r="K241" t="s">
+        <v>4410</v>
+      </c>
+      <c r="L241" t="s">
+        <v>4411</v>
+      </c>
+      <c r="M241" t="s">
+        <v>4412</v>
+      </c>
+      <c r="N241" t="s">
+        <v>4413</v>
+      </c>
+      <c r="O241" t="s">
+        <v>4414</v>
+      </c>
+      <c r="P241" t="s">
+        <v>4415</v>
+      </c>
+      <c r="Q241" t="s">
+        <v>4416</v>
+      </c>
+      <c r="R241" t="s">
+        <v>4417</v>
+      </c>
+      <c r="S241" t="s">
+        <v>4418</v>
+      </c>
+      <c r="T241" t="s">
+        <v>4419</v>
+      </c>
+      <c r="U241" t="s">
+        <v>4420</v>
+      </c>
+      <c r="V241" t="s">
+        <v>114</v>
+      </c>
+      <c r="W241" t="s">
+        <v>84</v>
+      </c>
+      <c r="X241" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y241" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z241" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA241" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB241" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC241" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD241" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE241" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF241" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG241" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH241" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI241" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ241" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK241" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL241" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM241" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN241" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO241" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP241" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ241" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR241" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS241" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT241" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU241" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV241" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW241" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX241" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY241" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ241" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA241" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB241" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC241" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>4421</v>
+      </c>
+      <c r="B242" t="s">
+        <v>4422</v>
+      </c>
+      <c r="C242" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D242" t="s">
+        <v>4423</v>
+      </c>
+      <c r="E242" t="s">
+        <v>4424</v>
+      </c>
+      <c r="F242" t="s">
+        <v>4425</v>
+      </c>
+      <c r="G242" t="s">
+        <v>4426</v>
+      </c>
+      <c r="H242" t="s">
+        <v>4425</v>
+      </c>
+      <c r="I242" t="s">
+        <v>4427</v>
+      </c>
+      <c r="J242" t="s">
+        <v>4428</v>
+      </c>
+      <c r="K242" t="s">
+        <v>4429</v>
+      </c>
+      <c r="L242" t="s">
+        <v>4430</v>
+      </c>
+      <c r="M242" t="s">
+        <v>4431</v>
+      </c>
+      <c r="N242" t="s">
+        <v>4432</v>
+      </c>
+      <c r="O242" t="s">
+        <v>59</v>
+      </c>
+      <c r="P242" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q242" t="s">
+        <v>4433</v>
+      </c>
+      <c r="R242" t="s">
+        <v>59</v>
+      </c>
+      <c r="S242" t="s">
+        <v>59</v>
+      </c>
+      <c r="T242" t="s">
+        <v>3238</v>
+      </c>
+      <c r="U242" t="s">
+        <v>59</v>
+      </c>
+      <c r="V242" t="s">
+        <v>140</v>
+      </c>
+      <c r="W242" t="s">
+        <v>114</v>
+      </c>
+      <c r="X242" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y242" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z242" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA242" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB242" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC242" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD242" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE242" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF242" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG242" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH242" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI242" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ242" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK242" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL242" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM242" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN242" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO242" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP242" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ242" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR242" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS242" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT242" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU242" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV242" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW242" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX242" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY242" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ242" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA242" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB242" t="s">
+        <v>240</v>
+      </c>
+      <c r="BC242" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>4434</v>
+      </c>
+      <c r="B243" t="s">
+        <v>4435</v>
+      </c>
+      <c r="C243" t="s">
+        <v>934</v>
+      </c>
+      <c r="D243" t="s">
+        <v>4436</v>
+      </c>
+      <c r="E243" t="s">
+        <v>4437</v>
+      </c>
+      <c r="F243" t="s">
+        <v>4438</v>
+      </c>
+      <c r="G243" t="s">
+        <v>4439</v>
+      </c>
+      <c r="H243" t="s">
+        <v>4440</v>
+      </c>
+      <c r="I243" t="s">
+        <v>4441</v>
+      </c>
+      <c r="J243" t="s">
+        <v>4442</v>
+      </c>
+      <c r="K243" t="s">
+        <v>4443</v>
+      </c>
+      <c r="L243" t="s">
+        <v>59</v>
+      </c>
+      <c r="M243" t="s">
+        <v>4444</v>
+      </c>
+      <c r="N243" t="s">
+        <v>59</v>
+      </c>
+      <c r="O243" t="s">
+        <v>4445</v>
+      </c>
+      <c r="P243" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q243" t="s">
+        <v>59</v>
+      </c>
+      <c r="R243" t="s">
+        <v>4446</v>
+      </c>
+      <c r="S243" t="s">
+        <v>4447</v>
+      </c>
+      <c r="T243" t="s">
+        <v>4448</v>
+      </c>
+      <c r="U243" t="s">
+        <v>59</v>
+      </c>
+      <c r="V243" t="s">
+        <v>113</v>
+      </c>
+      <c r="W243" t="s">
+        <v>76</v>
+      </c>
+      <c r="X243" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y243" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z243" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA243" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB243" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC243" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD243" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE243" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF243" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG243" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH243" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI243" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ243" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK243" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL243" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM243" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN243" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO243" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP243" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ243" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR243" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS243" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT243" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU243" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV243" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW243" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX243" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY243" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ243" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA243" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB243" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC243" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>4449</v>
+      </c>
+      <c r="B244" t="s">
+        <v>4450</v>
+      </c>
+      <c r="C244" t="s">
+        <v>1954</v>
+      </c>
+      <c r="D244" t="s">
+        <v>4451</v>
+      </c>
+      <c r="E244" t="s">
+        <v>59</v>
+      </c>
+      <c r="F244" t="s">
+        <v>4452</v>
+      </c>
+      <c r="G244" t="s">
+        <v>4453</v>
+      </c>
+      <c r="H244" t="s">
+        <v>4454</v>
+      </c>
+      <c r="I244" t="s">
+        <v>3244</v>
+      </c>
+      <c r="J244" t="s">
+        <v>4455</v>
+      </c>
+      <c r="K244" t="s">
+        <v>4456</v>
+      </c>
+      <c r="L244" t="s">
+        <v>4457</v>
+      </c>
+      <c r="M244" t="s">
+        <v>4458</v>
+      </c>
+      <c r="N244" t="s">
+        <v>59</v>
+      </c>
+      <c r="O244" t="s">
+        <v>4459</v>
+      </c>
+      <c r="P244" t="s">
+        <v>4460</v>
+      </c>
+      <c r="Q244" t="s">
+        <v>4461</v>
+      </c>
+      <c r="R244" t="s">
+        <v>59</v>
+      </c>
+      <c r="S244" t="s">
+        <v>4462</v>
+      </c>
+      <c r="T244" t="s">
+        <v>4463</v>
+      </c>
+      <c r="U244" t="s">
+        <v>59</v>
+      </c>
+      <c r="V244" t="s">
+        <v>59</v>
+      </c>
+      <c r="W244" t="s">
+        <v>137</v>
+      </c>
+      <c r="X244" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y244" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z244" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA244" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB244" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC244" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD244" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE244" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF244" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG244" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH244" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI244" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ244" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK244" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL244" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM244" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN244" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO244" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP244" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ244" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR244" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS244" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT244" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU244" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV244" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW244" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX244" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY244" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ244" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA244" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB244" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC244" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>4464</v>
+      </c>
+      <c r="B245" t="s">
+        <v>4465</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1954</v>
+      </c>
+      <c r="D245" t="s">
+        <v>4466</v>
+      </c>
+      <c r="E245" t="s">
+        <v>4382</v>
+      </c>
+      <c r="F245" t="s">
+        <v>4467</v>
+      </c>
+      <c r="G245" t="s">
+        <v>4468</v>
+      </c>
+      <c r="H245" t="s">
+        <v>4469</v>
+      </c>
+      <c r="I245" t="s">
+        <v>4470</v>
+      </c>
+      <c r="J245" t="s">
+        <v>4471</v>
+      </c>
+      <c r="K245" t="s">
+        <v>4472</v>
+      </c>
+      <c r="L245" t="s">
+        <v>4473</v>
+      </c>
+      <c r="M245" t="s">
+        <v>59</v>
+      </c>
+      <c r="N245" t="s">
+        <v>4474</v>
+      </c>
+      <c r="O245" t="s">
+        <v>4475</v>
+      </c>
+      <c r="P245" t="s">
+        <v>4476</v>
+      </c>
+      <c r="Q245" t="s">
+        <v>4477</v>
+      </c>
+      <c r="R245" t="s">
+        <v>59</v>
+      </c>
+      <c r="S245" t="s">
+        <v>4478</v>
+      </c>
+      <c r="T245" t="s">
+        <v>4479</v>
+      </c>
+      <c r="U245" t="s">
+        <v>59</v>
+      </c>
+      <c r="V245" t="s">
+        <v>138</v>
+      </c>
+      <c r="W245" t="s">
+        <v>137</v>
+      </c>
+      <c r="X245" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y245" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z245" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA245" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB245" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC245" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD245" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE245" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF245" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG245" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH245" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI245" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ245" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK245" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL245" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM245" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN245" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO245" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP245" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ245" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR245" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS245" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT245" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU245" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV245" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW245" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX245" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY245" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ245" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA245" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB245" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC245" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>4480</v>
+      </c>
+      <c r="B246" t="s">
+        <v>4481</v>
+      </c>
+      <c r="C246" t="s">
+        <v>3348</v>
+      </c>
+      <c r="D246" t="s">
+        <v>4482</v>
+      </c>
+      <c r="E246" t="s">
+        <v>4483</v>
+      </c>
+      <c r="F246" t="s">
+        <v>59</v>
+      </c>
+      <c r="G246" t="s">
+        <v>59</v>
+      </c>
+      <c r="H246" t="s">
+        <v>4484</v>
+      </c>
+      <c r="I246" t="s">
+        <v>4485</v>
+      </c>
+      <c r="J246" t="s">
+        <v>4486</v>
+      </c>
+      <c r="K246" t="s">
+        <v>4487</v>
+      </c>
+      <c r="L246" t="s">
+        <v>4488</v>
+      </c>
+      <c r="M246" t="s">
+        <v>4489</v>
+      </c>
+      <c r="N246" t="s">
+        <v>4490</v>
+      </c>
+      <c r="O246" t="s">
+        <v>4491</v>
+      </c>
+      <c r="P246" t="s">
+        <v>4492</v>
+      </c>
+      <c r="Q246" t="s">
+        <v>4493</v>
+      </c>
+      <c r="R246" t="s">
+        <v>4494</v>
+      </c>
+      <c r="S246" t="s">
+        <v>4495</v>
+      </c>
+      <c r="T246" t="s">
+        <v>4496</v>
+      </c>
+      <c r="U246" t="s">
+        <v>4497</v>
+      </c>
+      <c r="V246" t="s">
+        <v>137</v>
+      </c>
+      <c r="W246" t="s">
+        <v>59</v>
+      </c>
+      <c r="X246" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y246" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z246" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA246" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB246" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC246" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD246" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE246" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF246" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG246" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH246" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI246" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ246" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK246" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL246" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM246" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN246" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO246" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP246" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ246" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR246" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS246" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT246" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU246" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV246" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW246" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX246" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY246" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ246" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA246" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB246" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC246" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
